--- a/Assets/Resources/Data/AntData.xlsx
+++ b/Assets/Resources/Data/AntData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dondontan\Unity\AntWar\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CDF2A1-9BF9-40E7-AC13-C4724A2C9222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F290253A-278B-4067-821C-BD668AA8ED15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="2085" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="1" r:id="rId1"/>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1047,7 +1047,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>200</v>

--- a/Assets/Resources/Data/AntData.xlsx
+++ b/Assets/Resources/Data/AntData.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dondontan\Unity\AntWar\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F290253A-278B-4067-821C-BD668AA8ED15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA50A0DF-BDEC-4787-87BB-528B172AEB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="2085" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="2925" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Stats" sheetId="1" r:id="rId1"/>
+    <sheet name="AllUnit" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -59,6 +59,14 @@
   </si>
   <si>
     <t>Type</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>a.jpg</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ImageName</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1011,15 +1019,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1038,8 +1046,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1058,8 +1069,11 @@
       <c r="F2">
         <v>100</v>
       </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1078,8 +1092,11 @@
       <c r="F3">
         <v>50</v>
       </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1098,8 +1115,11 @@
       <c r="F4">
         <v>10</v>
       </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1118,8 +1138,11 @@
       <c r="F5">
         <v>20</v>
       </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1137,6 +1160,9 @@
       </c>
       <c r="F6">
         <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/AntData.xlsx
+++ b/Assets/Resources/Data/AntData.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dondontan\Unity\AntWar\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA50A0DF-BDEC-4787-87BB-528B172AEB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F290253A-278B-4067-821C-BD668AA8ED15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="2925" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="2085" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AllUnit" sheetId="1" r:id="rId1"/>
+    <sheet name="Stats" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -59,14 +59,6 @@
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>a.jpg</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>ImageName</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1019,15 +1011,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1046,11 +1038,8 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1069,11 +1058,8 @@
       <c r="F2">
         <v>100</v>
       </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1092,11 +1078,8 @@
       <c r="F3">
         <v>50</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1115,11 +1098,8 @@
       <c r="F4">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1138,11 +1118,8 @@
       <c r="F5">
         <v>20</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1160,9 +1137,6 @@
       </c>
       <c r="F6">
         <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/AntData.xlsx
+++ b/Assets/Resources/Data/AntData.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dondontan\Unity\AntWar\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F290253A-278B-4067-821C-BD668AA8ED15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7899210E-BE4F-45FA-A0C8-A3C9CE272FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="2085" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="2925" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Stats" sheetId="1" r:id="rId1"/>
+    <sheet name="StatsList" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -59,6 +59,14 @@
   </si>
   <si>
     <t>Type</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ImageName</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>a.png</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1011,15 +1019,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1038,8 +1046,11 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1058,8 +1069,11 @@
       <c r="F2">
         <v>100</v>
       </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1078,8 +1092,11 @@
       <c r="F3">
         <v>50</v>
       </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1098,8 +1115,11 @@
       <c r="F4">
         <v>10</v>
       </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1118,8 +1138,11 @@
       <c r="F5">
         <v>20</v>
       </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1136,7 +1159,10 @@
         <v>6</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/AntData.xlsx
+++ b/Assets/Resources/Data/AntData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dondontan\Unity\AntWar\Assets\Resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7899210E-BE4F-45FA-A0C8-A3C9CE272FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D127A76E-D9F9-40CF-A6C1-ECA796ACBB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="2925" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="1500" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StatsList" sheetId="1" r:id="rId1"/>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
